--- a/Assets/Designs/General/Notes.xlsx
+++ b/Assets/Designs/General/Notes.xlsx
@@ -11,12 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -64,12 +77,24 @@
   </si>
   <si>
     <t>SampleReport.txt</t>
+  </si>
+  <si>
+    <t>About the Game</t>
+  </si>
+  <si>
+    <t>10000.txt</t>
+  </si>
+  <si>
+    <t>Game Rule</t>
+  </si>
+  <si>
+    <t>10100.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -685,12 +710,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1006,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
@@ -1088,6 +1116,34 @@
       </c>
       <c r="D5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>10100</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Notes.xlsx
+++ b/Assets/Designs/General/Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -79,16 +79,94 @@
     <t>SampleReport.txt</t>
   </si>
   <si>
+    <t>FlashBack</t>
+  </si>
+  <si>
+    <t>3.txt</t>
+  </si>
+  <si>
     <t>About the Game</t>
   </si>
   <si>
     <t>10000.txt</t>
   </si>
   <si>
+    <t>Veronique</t>
+  </si>
+  <si>
+    <t>10001.txt</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>10002.txt</t>
+  </si>
+  <si>
+    <t>The Game</t>
+  </si>
+  <si>
+    <t>10003.txt</t>
+  </si>
+  <si>
+    <t>Darlan</t>
+  </si>
+  <si>
+    <t>10004.txt</t>
+  </si>
+  <si>
+    <t>Lanuarius</t>
+  </si>
+  <si>
+    <t>10005.txt</t>
+  </si>
+  <si>
+    <t>Francois</t>
+  </si>
+  <si>
+    <t>10006.txt</t>
+  </si>
+  <si>
+    <t>Chesteria</t>
+  </si>
+  <si>
+    <t>10007.txt</t>
+  </si>
+  <si>
     <t>Game Rule</t>
   </si>
   <si>
     <t>10100.txt</t>
+  </si>
+  <si>
+    <t>Smart Collar</t>
+  </si>
+  <si>
+    <t>10101.txt</t>
+  </si>
+  <si>
+    <t>\"The Godsends\"</t>
+  </si>
+  <si>
+    <t>10102.txt</t>
+  </si>
+  <si>
+    <t>Samantha's Badge</t>
+  </si>
+  <si>
+    <t>10103.txt</t>
+  </si>
+  <si>
+    <t>\"The Gestalt System\"</t>
+  </si>
+  <si>
+    <t>10104.txt</t>
+  </si>
+  <si>
+    <t>\"The River\"</t>
+  </si>
+  <si>
+    <t>10105.txt</t>
   </si>
 </sst>
 </file>
@@ -714,14 +792,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1034,45 +1112,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="51.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1080,7 +1158,7 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -1094,7 +1172,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -1108,7 +1186,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
@@ -1120,9 +1198,9 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>10000</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
@@ -1134,16 +1212,198 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>10100</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>10000</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>10001</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>10002</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>10003</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10004</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10005</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>10006</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>10007</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>10100</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>10101</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>10102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>10103</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>10104</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>10105</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
